--- a/data/trans_orig/P57GLOBAL_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>324624</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>304052</v>
+        <v>304101</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>343194</v>
+        <v>345105</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6893085879069331</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6456271764167958</v>
+        <v>0.6457298137365542</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7287407061823532</v>
+        <v>0.7327984475518642</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>198</v>
@@ -765,19 +765,19 @@
         <v>204645</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>188446</v>
+        <v>186305</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>219710</v>
+        <v>220891</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6698069676745099</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.616786367896661</v>
+        <v>0.6097799810400134</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7191133885927542</v>
+        <v>0.7229777555559466</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>509</v>
@@ -786,19 +786,19 @@
         <v>529269</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>502817</v>
+        <v>504317</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>553454</v>
+        <v>554821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6816349909300072</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6475679304670302</v>
+        <v>0.6494992467801575</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.712781785340837</v>
+        <v>0.7145423822800979</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>146317</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>127747</v>
+        <v>125836</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>166889</v>
+        <v>166840</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3106914120930669</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.271259293817647</v>
+        <v>0.2672015524481359</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3543728235832044</v>
+        <v>0.3542701862634458</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>99</v>
@@ -836,19 +836,19 @@
         <v>100884</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85819</v>
+        <v>84638</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>117083</v>
+        <v>119224</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3301930323254901</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2808866114072457</v>
+        <v>0.2770222444440535</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3832136321033391</v>
+        <v>0.3902200189599866</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>241</v>
@@ -857,19 +857,19 @@
         <v>247201</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>223016</v>
+        <v>221649</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>273653</v>
+        <v>272153</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3183650090699928</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.287218214659163</v>
+        <v>0.285457617719902</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3524320695329698</v>
+        <v>0.3505007532198425</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>235796</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>217292</v>
+        <v>216998</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>253759</v>
+        <v>254385</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6453365419322109</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5946958674730521</v>
+        <v>0.5938892011038752</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6944981319924478</v>
+        <v>0.6962119959324325</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>246</v>
@@ -982,19 +982,19 @@
         <v>252980</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>234855</v>
+        <v>235585</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>271839</v>
+        <v>270716</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6803015863439261</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6315593875101387</v>
+        <v>0.633522217746974</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7310155589185959</v>
+        <v>0.7279949307643701</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>475</v>
@@ -1003,19 +1003,19 @@
         <v>488776</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>462245</v>
+        <v>462620</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>515950</v>
+        <v>514903</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6629727432643814</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6269858545234369</v>
+        <v>0.6274947721703098</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6998317327196208</v>
+        <v>0.6984106923679959</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>129588</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>111625</v>
+        <v>110999</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>148092</v>
+        <v>148386</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3546634580677891</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3055018680075524</v>
+        <v>0.3037880040675675</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4053041325269481</v>
+        <v>0.4061107988961247</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>117</v>
@@ -1053,19 +1053,19 @@
         <v>118885</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>100026</v>
+        <v>101149</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>137010</v>
+        <v>136280</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3196984136560739</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2689844410814042</v>
+        <v>0.2720050692356302</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3684406124898612</v>
+        <v>0.3664777822530261</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>237</v>
@@ -1074,19 +1074,19 @@
         <v>248473</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>221299</v>
+        <v>222346</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>275004</v>
+        <v>274629</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3370272567356187</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3001682672803792</v>
+        <v>0.301589307632004</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.373014145476563</v>
+        <v>0.3725052278296903</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>404832</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>380777</v>
+        <v>382853</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>424179</v>
+        <v>423384</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7475502478226168</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7031305679312488</v>
+        <v>0.7069649281512372</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7832751903594093</v>
+        <v>0.78180764421013</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>116</v>
@@ -1199,19 +1199,19 @@
         <v>119422</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>108217</v>
+        <v>107263</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>130685</v>
+        <v>130010</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7159508673905898</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6487739509531496</v>
+        <v>0.6430533896011459</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7834750334200065</v>
+        <v>0.7794288361310742</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>514</v>
@@ -1220,19 +1220,19 @@
         <v>524254</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>500018</v>
+        <v>501130</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>545948</v>
+        <v>548280</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7401092069166492</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7058946044909002</v>
+        <v>0.707463865065749</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7707349066837174</v>
+        <v>0.7740272980868286</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>136713</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>117366</v>
+        <v>118161</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>160768</v>
+        <v>158692</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2524497521773832</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2167248096405912</v>
+        <v>0.21819235578987</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2968694320687512</v>
+        <v>0.2930350718487627</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>47</v>
@@ -1270,19 +1270,19 @@
         <v>47380</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>36117</v>
+        <v>36792</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>58585</v>
+        <v>59539</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2840491326094102</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2165249665799935</v>
+        <v>0.2205711638689258</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3512260490468503</v>
+        <v>0.356946610398854</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>180</v>
@@ -1291,19 +1291,19 @@
         <v>184093</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>162399</v>
+        <v>160067</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>208329</v>
+        <v>207217</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2598907930833508</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2292650933162827</v>
+        <v>0.2259727019131714</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2941053955090996</v>
+        <v>0.2925361349342509</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>902251</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>868982</v>
+        <v>868114</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>934219</v>
+        <v>934225</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7286003928114312</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7017349963080525</v>
+        <v>0.701033502435447</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7544161737610807</v>
+        <v>0.7544211389885902</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>517</v>
@@ -1416,19 +1416,19 @@
         <v>532591</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>508483</v>
+        <v>508086</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>555016</v>
+        <v>556827</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7456280928135658</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7118773079692469</v>
+        <v>0.7113205419720929</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7770234692762452</v>
+        <v>0.779558165470855</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1411</v>
@@ -1437,19 +1437,19 @@
         <v>1434842</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1392470</v>
+        <v>1396721</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1471514</v>
+        <v>1473251</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7348292740050415</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7131289448626793</v>
+        <v>0.7153063491061068</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.753609904931787</v>
+        <v>0.7544996971338275</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>336083</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>304115</v>
+        <v>304109</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369352</v>
+        <v>370220</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2713996071885688</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2455838262389191</v>
+        <v>0.24557886101141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2982650036919475</v>
+        <v>0.298966497564553</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>177</v>
@@ -1487,19 +1487,19 @@
         <v>181694</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>159269</v>
+        <v>157458</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>205802</v>
+        <v>206199</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2543719071864343</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2229765307237548</v>
+        <v>0.220441834529145</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2881226920307531</v>
+        <v>0.2886794580279071</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>507</v>
@@ -1508,19 +1508,19 @@
         <v>517778</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>481106</v>
+        <v>479369</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>560150</v>
+        <v>555899</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2651707259949584</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2463900950682131</v>
+        <v>0.2455003028661725</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2868710551373209</v>
+        <v>0.284693650893893</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>251988</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>233385</v>
+        <v>234283</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>268025</v>
+        <v>269068</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7188250732313657</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6657586021806492</v>
+        <v>0.6683206535465566</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7645731644150779</v>
+        <v>0.7675479662656407</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>422</v>
@@ -1633,19 +1633,19 @@
         <v>451946</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>433246</v>
+        <v>430061</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>470520</v>
+        <v>469229</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7960194736973815</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7630838817557075</v>
+        <v>0.7574736425860967</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.82873564322014</v>
+        <v>0.826460612228561</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>667</v>
@@ -1654,19 +1654,19 @@
         <v>703933</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>675407</v>
+        <v>678589</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>728088</v>
+        <v>729722</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7665513866295376</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7354871349737746</v>
+        <v>0.7389529322606165</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7928551350846486</v>
+        <v>0.7946345259153228</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>98567</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>82530</v>
+        <v>81487</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117170</v>
+        <v>116272</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2811749267686344</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2354268355849221</v>
+        <v>0.2324520337343593</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3342413978193508</v>
+        <v>0.3316793464534433</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>116</v>
@@ -1704,19 +1704,19 @@
         <v>115811</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>97237</v>
+        <v>98528</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>134511</v>
+        <v>137696</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2039805263026185</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1712643567798597</v>
+        <v>0.1735393877714391</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2369161182442925</v>
+        <v>0.2425263574139033</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>211</v>
@@ -1725,19 +1725,19 @@
         <v>214379</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>190224</v>
+        <v>188590</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>242905</v>
+        <v>239723</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2334486133704624</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2071448649153513</v>
+        <v>0.2053654740846776</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2645128650262254</v>
+        <v>0.2610470677393838</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>178976</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>161411</v>
+        <v>162448</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>193347</v>
+        <v>194212</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6018768488088218</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5428074659284352</v>
+        <v>0.54629679491434</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6502038721375476</v>
+        <v>0.6531149671307416</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>863</v>
@@ -1850,19 +1850,19 @@
         <v>878009</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>846806</v>
+        <v>846677</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>910514</v>
+        <v>909742</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7031044617327208</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6781173627849831</v>
+        <v>0.6780145337794765</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7291342838872819</v>
+        <v>0.7285166678926039</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1046</v>
@@ -1871,19 +1871,19 @@
         <v>1056985</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1021641</v>
+        <v>1018116</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1093007</v>
+        <v>1092282</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.683635519556676</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.660776219191563</v>
+        <v>0.65849586378952</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7069340586394223</v>
+        <v>0.7064652439734521</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>118387</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>104016</v>
+        <v>103151</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>135952</v>
+        <v>134915</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3981231511911782</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3497961278624523</v>
+        <v>0.3468850328692585</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4571925340715647</v>
+        <v>0.45370320508566</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>375</v>
@@ -1921,19 +1921,19 @@
         <v>370751</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>338246</v>
+        <v>339018</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>401954</v>
+        <v>402083</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2968955382672792</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.270865716112718</v>
+        <v>0.2714833321073961</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3218826372150168</v>
+        <v>0.3219854662205235</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>497</v>
@@ -1942,19 +1942,19 @@
         <v>489138</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>453116</v>
+        <v>453841</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>524482</v>
+        <v>528007</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3163644804433239</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2930659413605777</v>
+        <v>0.2935347560265479</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.339223780808437</v>
+        <v>0.3415041362104798</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>2298466</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2245992</v>
+        <v>2244853</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2347527</v>
+        <v>2351690</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7041604636245472</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6880844250122771</v>
+        <v>0.6877355301203972</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7191906693398742</v>
+        <v>0.7204661725904263</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2362</v>
@@ -2067,19 +2067,19 @@
         <v>2439593</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2383265</v>
+        <v>2387503</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2490839</v>
+        <v>2490914</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7228428396532305</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7061530978090105</v>
+        <v>0.707408617464231</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7380268780292126</v>
+        <v>0.738048907018802</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4622</v>
@@ -2088,19 +2088,19 @@
         <v>4738060</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4657099</v>
+        <v>4660416</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4816490</v>
+        <v>4810924</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7136576524617931</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7014631244172451</v>
+        <v>0.7019628031804036</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7254709979949677</v>
+        <v>0.7246326604408158</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>965657</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>916596</v>
+        <v>912433</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1018131</v>
+        <v>1019270</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2958395363754528</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2808093306601258</v>
+        <v>0.279533827409574</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3119155749877227</v>
+        <v>0.3122644698796029</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>931</v>
@@ -2138,19 +2138,19 @@
         <v>935405</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>884159</v>
+        <v>884084</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>991733</v>
+        <v>987495</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2771571603467695</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2619731219707874</v>
+        <v>0.2619510929811978</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2938469021909896</v>
+        <v>0.2925913825357684</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1873</v>
@@ -2159,19 +2159,19 @@
         <v>1901061</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1822631</v>
+        <v>1828197</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1982022</v>
+        <v>1978705</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2863423475382069</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.274529002005032</v>
+        <v>0.2753673395591836</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2985368755827548</v>
+        <v>0.2980371968195963</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>294653</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>275406</v>
+        <v>275771</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>315241</v>
+        <v>315137</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6769216280889203</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6327036824868748</v>
+        <v>0.6335417688004826</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7242192489130026</v>
+        <v>0.7239811680006486</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>197</v>
@@ -2526,19 +2526,19 @@
         <v>218859</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>201008</v>
+        <v>202251</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>234428</v>
+        <v>236913</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7058253407016718</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6482529795313118</v>
+        <v>0.6522624819749396</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7560326316167882</v>
+        <v>0.7640485041324852</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>467</v>
@@ -2547,19 +2547,19 @@
         <v>513513</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>487319</v>
+        <v>483859</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>539879</v>
+        <v>537893</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.688945831950142</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6538037206456551</v>
+        <v>0.6491616783152405</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7243201531735677</v>
+        <v>0.721655495944911</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>140631</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120043</v>
+        <v>120147</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>159878</v>
+        <v>159513</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3230783719110797</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2757807510869972</v>
+        <v>0.2760188319993514</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3672963175131252</v>
+        <v>0.3664582311995174</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>82</v>
@@ -2597,19 +2597,19 @@
         <v>91217</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>75648</v>
+        <v>73163</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>109068</v>
+        <v>107825</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2941746592983281</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2439673683832118</v>
+        <v>0.2359514958675147</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.351747020468688</v>
+        <v>0.3477375180250603</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>214</v>
@@ -2618,19 +2618,19 @@
         <v>231847</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>205481</v>
+        <v>207467</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>258041</v>
+        <v>261501</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.311054168049858</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2756798468264323</v>
+        <v>0.2783445040550889</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3461962793543449</v>
+        <v>0.3508383216847594</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>282087</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>260624</v>
+        <v>261248</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>302564</v>
+        <v>301131</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6787824339436893</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6271372718720992</v>
+        <v>0.6286383320098612</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7280559068873512</v>
+        <v>0.7246080109884954</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>222</v>
@@ -2743,19 +2743,19 @@
         <v>246497</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>230302</v>
+        <v>229253</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>262997</v>
+        <v>263277</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7372463227607111</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6888104449155484</v>
+        <v>0.6856730810941946</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7865972627051976</v>
+        <v>0.7874342685681526</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>472</v>
@@ -2764,19 +2764,19 @@
         <v>528585</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>503163</v>
+        <v>497917</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>556937</v>
+        <v>552863</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7048480564835324</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.67094948449474</v>
+        <v>0.6639538070025309</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7426545927430012</v>
+        <v>0.7372230583009515</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>133491</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>113014</v>
+        <v>114447</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>154954</v>
+        <v>154330</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3212175660563107</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2719440931126488</v>
+        <v>0.2753919890115046</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3728627281279009</v>
+        <v>0.3713616679901388</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -2814,19 +2814,19 @@
         <v>87851</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>71351</v>
+        <v>71071</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>104046</v>
+        <v>105095</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2627536772392889</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2134027372948024</v>
+        <v>0.2125657314318475</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3111895550844515</v>
+        <v>0.3143269189058054</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>202</v>
@@ -2835,19 +2835,19 @@
         <v>221342</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>192990</v>
+        <v>197064</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>246764</v>
+        <v>252010</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2951519435164676</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2573454072569989</v>
+        <v>0.2627769416990485</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.32905051550526</v>
+        <v>0.3360461929974691</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>424901</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>401510</v>
+        <v>401583</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>446398</v>
+        <v>448196</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6831984717127466</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6455880239798261</v>
+        <v>0.6457052796361706</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7177628486880432</v>
+        <v>0.7206552851731649</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>177</v>
@@ -2960,19 +2960,19 @@
         <v>188105</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>172559</v>
+        <v>174194</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>202171</v>
+        <v>203749</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.725732361876452</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6657533211395265</v>
+        <v>0.6720611710777119</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7800022452367996</v>
+        <v>0.7860890863165098</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>573</v>
@@ -2981,19 +2981,19 @@
         <v>613006</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>583605</v>
+        <v>585053</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>641334</v>
+        <v>641445</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6957103293383182</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6623427557427488</v>
+        <v>0.6639859214533776</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7278607450508419</v>
+        <v>0.7279865722108043</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>197028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>175531</v>
+        <v>173733</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>220419</v>
+        <v>220346</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3168015282872533</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2822371513119569</v>
+        <v>0.279344714826835</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3544119760201739</v>
+        <v>0.3542947203638294</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>66</v>
@@ -3031,19 +3031,19 @@
         <v>71088</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>57022</v>
+        <v>55444</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>86634</v>
+        <v>84999</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.274267638123548</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2199977547632004</v>
+        <v>0.2139109136834904</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3342466788604735</v>
+        <v>0.3279388289222885</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>254</v>
@@ -3052,19 +3052,19 @@
         <v>268116</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>239788</v>
+        <v>239677</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>297517</v>
+        <v>296069</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3042896706616818</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2721392549491579</v>
+        <v>0.2720134277891956</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3376572442572511</v>
+        <v>0.3360140785466223</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>802532</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>771041</v>
+        <v>770560</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>835672</v>
+        <v>833002</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7019426251911665</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6743988013045596</v>
+        <v>0.6739781340143745</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7309294598534644</v>
+        <v>0.7285933624495835</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>560</v>
@@ -3177,19 +3177,19 @@
         <v>607637</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>584497</v>
+        <v>584197</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>629708</v>
+        <v>631168</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7987601372414218</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7683423648910154</v>
+        <v>0.7679475712059877</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8277731902253898</v>
+        <v>0.8296930938596558</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1307</v>
@@ -3198,19 +3198,19 @@
         <v>1410169</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1368912</v>
+        <v>1372662</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1447658</v>
+        <v>1448998</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7406246242550044</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7189565293496532</v>
+        <v>0.7209261615061073</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7603144417693755</v>
+        <v>0.7610181046534353</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>340769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>307629</v>
+        <v>310299</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>372260</v>
+        <v>372741</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2980573748088336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2690705401465361</v>
+        <v>0.2714066375504166</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3256011986954406</v>
+        <v>0.3260218659856256</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>146</v>
@@ -3248,19 +3248,19 @@
         <v>153088</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>131017</v>
+        <v>129557</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>176228</v>
+        <v>176528</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2012398627585782</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1722268097746101</v>
+        <v>0.1703069061403441</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2316576351089847</v>
+        <v>0.2320524287940123</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>466</v>
@@ -3269,19 +3269,19 @@
         <v>493857</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>456368</v>
+        <v>455028</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>535114</v>
+        <v>531364</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2593753757449955</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2396855582306247</v>
+        <v>0.2389818953465647</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2810434706503471</v>
+        <v>0.2790738384938929</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>364636</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>343282</v>
+        <v>343365</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>382323</v>
+        <v>382022</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.728689901592493</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6860150206771958</v>
+        <v>0.6861818012795482</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7640351587310077</v>
+        <v>0.7634323462629907</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>534</v>
@@ -3394,19 +3394,19 @@
         <v>579751</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>557190</v>
+        <v>551764</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>603568</v>
+        <v>601013</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7707119347969584</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7407192518174383</v>
+        <v>0.733506905317687</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8023736675743618</v>
+        <v>0.798977305770483</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>880</v>
@@ -3415,19 +3415,19 @@
         <v>944388</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>910434</v>
+        <v>909988</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>975043</v>
+        <v>974030</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7539249690180018</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7268190403575794</v>
+        <v>0.7264630359004582</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7783981617344045</v>
+        <v>0.7775889112018071</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>135764</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>118077</v>
+        <v>118378</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>157118</v>
+        <v>157035</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.271310098407507</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2359648412689928</v>
+        <v>0.2365676537370093</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3139849793228043</v>
+        <v>0.3138181987204518</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>161</v>
@@ -3465,19 +3465,19 @@
         <v>172477</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>148660</v>
+        <v>151215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>195038</v>
+        <v>200464</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2292880652030416</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1976263324256382</v>
+        <v>0.201022694229517</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2592807481825617</v>
+        <v>0.2664930946823128</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>292</v>
@@ -3486,19 +3486,19 @@
         <v>308240</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>277585</v>
+        <v>278598</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>342194</v>
+        <v>342640</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2460750309819983</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2216018382655954</v>
+        <v>0.2224110887981929</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2731809596424206</v>
+        <v>0.2735369640995416</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>162366</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>147115</v>
+        <v>148733</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>177718</v>
+        <v>179340</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6127243205888209</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.555168091253784</v>
+        <v>0.5612768836096023</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6706552745965542</v>
+        <v>0.6767794174555605</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>757</v>
@@ -3611,19 +3611,19 @@
         <v>805402</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>773952</v>
+        <v>773767</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>834721</v>
+        <v>833767</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7327707178494358</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7041563482599996</v>
+        <v>0.7039881899973293</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7594457271867483</v>
+        <v>0.7585774575873084</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>919</v>
@@ -3632,19 +3632,19 @@
         <v>967768</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>930504</v>
+        <v>934517</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>999611</v>
+        <v>998383</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7094506129928899</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6821333144747288</v>
+        <v>0.6850753028695608</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7327940635861568</v>
+        <v>0.7318937071544143</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>102625</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>87273</v>
+        <v>85651</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>117876</v>
+        <v>116258</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3872756794111792</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3293447254034457</v>
+        <v>0.3232205825444391</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4448319087462159</v>
+        <v>0.4387231163903977</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>278</v>
@@ -3682,19 +3682,19 @@
         <v>293717</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>264398</v>
+        <v>265352</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>325167</v>
+        <v>325352</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2672292821505642</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2405542728132521</v>
+        <v>0.2414225424126916</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2958436517400004</v>
+        <v>0.2960118100026711</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>379</v>
@@ -3703,19 +3703,19 @@
         <v>396341</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>364498</v>
+        <v>365726</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>433605</v>
+        <v>429592</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2905493870071101</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2672059364138431</v>
+        <v>0.2681062928455858</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3178666855252712</v>
+        <v>0.3149246971304393</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>2331176</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2275081</v>
+        <v>2275216</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2387811</v>
+        <v>2384594</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6893944831754102</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6728057551312498</v>
+        <v>0.6728455131443362</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7061431938085786</v>
+        <v>0.7051918041969033</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2447</v>
@@ -3828,19 +3828,19 @@
         <v>2646252</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2595086</v>
+        <v>2595113</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2696771</v>
+        <v>2695711</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7526977517629786</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.738144045358856</v>
+        <v>0.7381518926703905</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7670673305738197</v>
+        <v>0.7667659329000556</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4618</v>
@@ -3849,19 +3849,19 @@
         <v>4977427</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4910577</v>
+        <v>4901295</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5052290</v>
+        <v>5051937</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7216620027300661</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7119696318825297</v>
+        <v>0.7106238333054903</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7325162276217216</v>
+        <v>0.7324650131981192</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>1050307</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>993672</v>
+        <v>996889</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1106402</v>
+        <v>1106267</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3106055168245898</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2938568061914217</v>
+        <v>0.2948081958030969</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3271942448687505</v>
+        <v>0.327154486855664</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>813</v>
@@ -3899,19 +3899,19 @@
         <v>869438</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>818919</v>
+        <v>819979</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>920604</v>
+        <v>920577</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2473022482370214</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2329326694261802</v>
+        <v>0.2332340670999444</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2618559546411439</v>
+        <v>0.2618481073296094</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1807</v>
@@ -3920,19 +3920,19 @@
         <v>1919745</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1844882</v>
+        <v>1845235</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1986595</v>
+        <v>1995877</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2783379972699339</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2674837723782783</v>
+        <v>0.2675349868018809</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2880303681174703</v>
+        <v>0.2893761666945097</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>338980</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>319609</v>
+        <v>318998</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>355813</v>
+        <v>355101</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7915902711451028</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7463542805249411</v>
+        <v>0.7449262021094081</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8308978370109196</v>
+        <v>0.8292358194494625</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>262</v>
@@ -4287,19 +4287,19 @@
         <v>275053</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>259961</v>
+        <v>259564</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>289619</v>
+        <v>289204</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8055547535337796</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7613549611286266</v>
+        <v>0.7601928941066536</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8482160599559451</v>
+        <v>0.8469987888025252</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>575</v>
@@ -4308,19 +4308,19 @@
         <v>614033</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>589971</v>
+        <v>591587</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>634999</v>
+        <v>637857</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7977852483171806</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7665220802237964</v>
+        <v>0.7686221962115842</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8250259549887825</v>
+        <v>0.8287388473589267</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>89247</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>72414</v>
+        <v>73126</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>108618</v>
+        <v>109229</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2084097288548972</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1691021629890804</v>
+        <v>0.1707641805505377</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2536457194750588</v>
+        <v>0.2550737978905919</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -4358,19 +4358,19 @@
         <v>66392</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51826</v>
+        <v>52241</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81484</v>
+        <v>81881</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1944452464662205</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1517839400440549</v>
+        <v>0.153001211197474</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2386450388713734</v>
+        <v>0.239807105893346</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>147</v>
@@ -4379,19 +4379,19 @@
         <v>155639</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>134673</v>
+        <v>131815</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>179701</v>
+        <v>178085</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2022147516828194</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1749740450112174</v>
+        <v>0.1712611526410733</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2334779197762035</v>
+        <v>0.2313778037884157</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>288578</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>271312</v>
+        <v>270963</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>303662</v>
+        <v>304227</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7734641762119614</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.727186734120868</v>
+        <v>0.7262505423390943</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8138924085982508</v>
+        <v>0.8154090392170067</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>278</v>
@@ -4504,19 +4504,19 @@
         <v>293700</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>277843</v>
+        <v>275795</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>308194</v>
+        <v>308237</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8008864068167423</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7576451082782784</v>
+        <v>0.7520615727594331</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8404089750059808</v>
+        <v>0.8405258405355176</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>548</v>
@@ -4525,19 +4525,19 @@
         <v>582278</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>559246</v>
+        <v>555776</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>603416</v>
+        <v>603489</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.787057071710776</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7559251645835754</v>
+        <v>0.7512344459333973</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8156284432588922</v>
+        <v>0.8157270093075764</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>84520</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>69436</v>
+        <v>68871</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>101786</v>
+        <v>102135</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2265358237880386</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1861075914017492</v>
+        <v>0.1845909607829934</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2728132658791323</v>
+        <v>0.273749457660906</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>69</v>
@@ -4575,19 +4575,19 @@
         <v>73019</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>58525</v>
+        <v>58482</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>88876</v>
+        <v>90924</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1991135931832577</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1595910249940192</v>
+        <v>0.1594741594644824</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2423548917217217</v>
+        <v>0.2479384272405669</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>150</v>
@@ -4596,19 +4596,19 @@
         <v>157539</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>136401</v>
+        <v>136328</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>180571</v>
+        <v>184041</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2129429282892241</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1843715567411077</v>
+        <v>0.1842729906924235</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2440748354164246</v>
+        <v>0.2487655540666027</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>450651</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>433658</v>
+        <v>433509</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>464884</v>
+        <v>465543</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8650596606997951</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8324410270891793</v>
+        <v>0.8321550158331644</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8923808728830414</v>
+        <v>0.8936459422054375</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>131</v>
@@ -4721,19 +4721,19 @@
         <v>143136</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>132950</v>
+        <v>134524</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>149986</v>
+        <v>150632</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8803808027907944</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8177319362052352</v>
+        <v>0.8274127949827044</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9225156621842295</v>
+        <v>0.9264886055857209</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>564</v>
@@ -4742,19 +4742,19 @@
         <v>593787</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>576479</v>
+        <v>576410</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>610061</v>
+        <v>612085</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8687039291182919</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8433820569400061</v>
+        <v>0.8432817378584282</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8925126761082025</v>
+        <v>0.8954741967398594</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>70297</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56064</v>
+        <v>55405</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>87290</v>
+        <v>87439</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1349403393002049</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1076191271169587</v>
+        <v>0.1063540577945628</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1675589729108206</v>
+        <v>0.1678449841668356</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -4792,19 +4792,19 @@
         <v>19448</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12598</v>
+        <v>11952</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29634</v>
+        <v>28060</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1196191972092055</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07748433781577094</v>
+        <v>0.07351139441427912</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1822680637947648</v>
+        <v>0.1725872050172957</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>87</v>
@@ -4813,19 +4813,19 @@
         <v>89745</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>73471</v>
+        <v>71447</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>107053</v>
+        <v>107122</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1312960708817081</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1074873238917974</v>
+        <v>0.1045258032601407</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1566179430599939</v>
+        <v>0.1567182621415718</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>933545</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>904588</v>
+        <v>908997</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>957885</v>
+        <v>957968</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8214086963571585</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.795929849670416</v>
+        <v>0.7998095815795033</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8428251177391025</v>
+        <v>0.8428980396342411</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>678</v>
@@ -4938,19 +4938,19 @@
         <v>703506</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>681599</v>
+        <v>683006</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>721580</v>
+        <v>723085</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8586969547719335</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.831957481031972</v>
+        <v>0.8336737411593815</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8807580495001808</v>
+        <v>0.8825940611973588</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1572</v>
@@ -4959,19 +4959,19 @@
         <v>1637051</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1604314</v>
+        <v>1600446</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1668357</v>
+        <v>1667002</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8370286000696651</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8202899726653146</v>
+        <v>0.8183123760097202</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8530354426696358</v>
+        <v>0.8523424234475615</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>202972</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>178632</v>
+        <v>178549</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>231929</v>
+        <v>227520</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1785913036428415</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1571748822608976</v>
+        <v>0.1571019603657589</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.204070150329584</v>
+        <v>0.2001904184204967</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>114</v>
@@ -5009,19 +5009,19 @@
         <v>115766</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>97692</v>
+        <v>96187</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>137673</v>
+        <v>136266</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1413030452280665</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1192419504998192</v>
+        <v>0.1174059388026415</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.168042518968028</v>
+        <v>0.1663262588406188</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>311</v>
@@ -5030,19 +5030,19 @@
         <v>318738</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>287432</v>
+        <v>288787</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>351475</v>
+        <v>355343</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1629713999303349</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1469645573303642</v>
+        <v>0.1476575765524385</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1797100273346856</v>
+        <v>0.1816876239902799</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>512677</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>493788</v>
+        <v>492406</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>531302</v>
+        <v>529062</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8344611356874266</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8037170372909739</v>
+        <v>0.8014660575797398</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8647767956688367</v>
+        <v>0.8611295048543401</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>601</v>
@@ -5155,19 +5155,19 @@
         <v>638204</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>619092</v>
+        <v>620511</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>656406</v>
+        <v>654665</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8726415269187353</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8465086826993449</v>
+        <v>0.8484497104863852</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8975305869201001</v>
+        <v>0.8951496783823241</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1097</v>
@@ -5176,19 +5176,19 @@
         <v>1150881</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1122403</v>
+        <v>1125165</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1174498</v>
+        <v>1178152</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8552105952022463</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8340486858917924</v>
+        <v>0.8361012353737722</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8727605121947069</v>
+        <v>0.8754753366898683</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>101704</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>83079</v>
+        <v>85319</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>120593</v>
+        <v>121975</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1655388643125733</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1352232043311629</v>
+        <v>0.1388704951456598</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.196282962709026</v>
+        <v>0.1985339424202602</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>91</v>
@@ -5226,19 +5226,19 @@
         <v>93143</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>74941</v>
+        <v>76682</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>112255</v>
+        <v>110836</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1273584730812647</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1024694130798999</v>
+        <v>0.1048503216176758</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1534913173006552</v>
+        <v>0.1515502895136144</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>187</v>
@@ -5247,19 +5247,19 @@
         <v>194847</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>171230</v>
+        <v>167576</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>223325</v>
+        <v>220563</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1447894047977537</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1272394878052932</v>
+        <v>0.1245246633101318</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1659513141082077</v>
+        <v>0.1638987646262278</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>226626</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>212680</v>
+        <v>212432</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>241188</v>
+        <v>239834</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7918612522223233</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7431330754097552</v>
+        <v>0.742267476253862</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8427431622857794</v>
+        <v>0.8380125150818079</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>828</v>
@@ -5372,19 +5372,19 @@
         <v>910426</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>885847</v>
+        <v>886505</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>932953</v>
+        <v>933074</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8473411680924159</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8244651974273165</v>
+        <v>0.825078072552852</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8683071093295033</v>
+        <v>0.8684199570269804</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1042</v>
@@ -5393,19 +5393,19 @@
         <v>1137052</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1107494</v>
+        <v>1107689</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1161964</v>
+        <v>1162938</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8356716924807573</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8139487494074839</v>
+        <v>0.814091622288869</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8539808923302986</v>
+        <v>0.8546966058024921</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>59568</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45006</v>
+        <v>46360</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>73514</v>
+        <v>73762</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2081387477776767</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1572568377142207</v>
+        <v>0.1619874849181922</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2568669245902448</v>
+        <v>0.257732523746138</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>157</v>
@@ -5443,19 +5443,19 @@
         <v>164024</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>141497</v>
+        <v>141376</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>188603</v>
+        <v>187945</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1526588319075841</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1316928906704968</v>
+        <v>0.1315800429730197</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1755348025726836</v>
+        <v>0.174921927447148</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>214</v>
@@ -5464,19 +5464,19 @@
         <v>223592</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>198680</v>
+        <v>197706</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>253150</v>
+        <v>252955</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1643283075192427</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1460191076697011</v>
+        <v>0.1453033941975079</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1860512505925162</v>
+        <v>0.1859083777111311</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>2751056</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2704176</v>
+        <v>2703060</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2792530</v>
+        <v>2795663</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8189218168802138</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8049666260409403</v>
+        <v>0.8046344441318671</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8312675933710532</v>
+        <v>0.8321999769525367</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2778</v>
@@ -5589,19 +5589,19 @@
         <v>2964025</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2921915</v>
+        <v>2919185</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3007294</v>
+        <v>3006684</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8478775050936445</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8358315533224376</v>
+        <v>0.8350506446708356</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8602547858533441</v>
+        <v>0.8600802434402147</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5398</v>
@@ -5610,19 +5610,19 @@
         <v>5715082</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5648822</v>
+        <v>5655724</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5770237</v>
+        <v>5773409</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8336878463124118</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8240221640511521</v>
+        <v>0.8250290791641273</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8417335865601518</v>
+        <v>0.8421963351218172</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>608308</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>566834</v>
+        <v>563701</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>655188</v>
+        <v>656304</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1810781831197862</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.168732406628947</v>
+        <v>0.1678000230474633</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1950333739590598</v>
+        <v>0.1953655558681325</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>515</v>
@@ -5660,19 +5660,19 @@
         <v>531793</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>488524</v>
+        <v>489134</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>573903</v>
+        <v>576633</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1521224949063555</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1397452141466559</v>
+        <v>0.1399197565597861</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1641684466775624</v>
+        <v>0.1649493553291649</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1096</v>
@@ -5681,19 +5681,19 @@
         <v>1140100</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1084945</v>
+        <v>1081773</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1206360</v>
+        <v>1199458</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1663121536875883</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1582664134398482</v>
+        <v>0.1578036648781828</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.175977835948848</v>
+        <v>0.1749709208358728</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>321899</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>295271</v>
+        <v>298144</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>346319</v>
+        <v>347765</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.594341591506103</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5451773967087434</v>
+        <v>0.5504812272228677</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6394300544935381</v>
+        <v>0.6420992516195503</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>382</v>
@@ -6048,19 +6048,19 @@
         <v>265258</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>245107</v>
+        <v>245719</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>283770</v>
+        <v>284901</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5488176067382794</v>
+        <v>0.5488176067382795</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.507124993242614</v>
+        <v>0.5083912980165922</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5871200788324061</v>
+        <v>0.5894584371824126</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>709</v>
@@ -6069,19 +6069,19 @@
         <v>587157</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>557535</v>
+        <v>557476</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>615754</v>
+        <v>617952</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5728739102051301</v>
+        <v>0.5728739102051302</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5439727153150141</v>
+        <v>0.5439151371896542</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6007750278873978</v>
+        <v>0.6029201408510551</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>219707</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>195287</v>
+        <v>193841</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>246335</v>
+        <v>243462</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4056584084938973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3605699455064617</v>
+        <v>0.3579007483804498</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4548226032912564</v>
+        <v>0.4495187727771323</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>297</v>
@@ -6119,19 +6119,19 @@
         <v>218068</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>199556</v>
+        <v>198425</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>238219</v>
+        <v>237607</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4511823932617206</v>
+        <v>0.4511823932617205</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4128799211675941</v>
+        <v>0.4105415628175874</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.492875006757386</v>
+        <v>0.4916087019834077</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>513</v>
@@ -6140,19 +6140,19 @@
         <v>437775</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>409178</v>
+        <v>406980</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>467397</v>
+        <v>467456</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4271260897948699</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.399224972112603</v>
+        <v>0.3970798591489452</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.456027284684986</v>
+        <v>0.4560848628103459</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>314693</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>292527</v>
+        <v>292515</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>336278</v>
+        <v>334739</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6580855180069358</v>
+        <v>0.658085518006936</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6117337091263391</v>
+        <v>0.6117072751621273</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7032260886749051</v>
+        <v>0.7000066821962575</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>382</v>
@@ -6265,19 +6265,19 @@
         <v>267249</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>248932</v>
+        <v>249968</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>284539</v>
+        <v>283724</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6406872184694358</v>
+        <v>0.6406872184694359</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5967734504035166</v>
+        <v>0.5992586152553478</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.682135674189007</v>
+        <v>0.6801818271215027</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>702</v>
@@ -6286,19 +6286,19 @@
         <v>581942</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>553280</v>
+        <v>551723</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>608615</v>
+        <v>609532</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6499796902736088</v>
+        <v>0.649979690273609</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6179665869665133</v>
+        <v>0.6162283159844165</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6797714003968788</v>
+        <v>0.6807958718939986</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>163501</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>141916</v>
+        <v>143455</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>185667</v>
+        <v>185679</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.341914481993064</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2967739113250947</v>
+        <v>0.2999933178037425</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3882662908736609</v>
+        <v>0.3882927248378727</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>199</v>
@@ -6336,19 +6336,19 @@
         <v>149880</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>132590</v>
+        <v>133405</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>168197</v>
+        <v>167161</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3593127815305641</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3178643258109928</v>
+        <v>0.3198181728784973</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4032265495964833</v>
+        <v>0.4007413847446522</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>355</v>
@@ -6357,19 +6357,19 @@
         <v>313381</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>286708</v>
+        <v>285791</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>342043</v>
+        <v>343600</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3500203097263911</v>
+        <v>0.3500203097263912</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3202285996031211</v>
+        <v>0.3192041281060014</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3820334130334865</v>
+        <v>0.3837716840155836</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>301406</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>279987</v>
+        <v>278436</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>320930</v>
+        <v>322535</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6500061828482735</v>
+        <v>0.6500061828482734</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6038147260075104</v>
+        <v>0.6004686932270852</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6921120203893624</v>
+        <v>0.6955718948935912</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>191</v>
@@ -6482,19 +6482,19 @@
         <v>122540</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>111687</v>
+        <v>111418</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>134303</v>
+        <v>133603</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6646610397270877</v>
+        <v>0.6646610397270876</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6057945588960456</v>
+        <v>0.6043377842683019</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7284659590383137</v>
+        <v>0.7246677657714563</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>509</v>
@@ -6503,19 +6503,19 @@
         <v>423945</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>399781</v>
+        <v>399363</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>446729</v>
+        <v>447904</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.654175287305403</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6168878352658629</v>
+        <v>0.6162424323553333</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6893324572005318</v>
+        <v>0.6911453438896179</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>162291</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>142767</v>
+        <v>141162</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>183710</v>
+        <v>185261</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3499938171517266</v>
+        <v>0.3499938171517265</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3078879796106376</v>
+        <v>0.3044281051064088</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3961852739924897</v>
+        <v>0.3995313067729147</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>93</v>
@@ -6553,19 +6553,19 @@
         <v>61824</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50061</v>
+        <v>50761</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>72677</v>
+        <v>72946</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3353389602729123</v>
+        <v>0.3353389602729122</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2715340409616863</v>
+        <v>0.2753322342285438</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3942054411039544</v>
+        <v>0.395662215731698</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>255</v>
@@ -6574,19 +6574,19 @@
         <v>224116</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>201332</v>
+        <v>200157</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>248280</v>
+        <v>248698</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3458247126945971</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3106675427994682</v>
+        <v>0.3088546561103832</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3831121647341371</v>
+        <v>0.3837575676446669</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>742478</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>705824</v>
+        <v>708059</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>775483</v>
+        <v>776684</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6623553287541659</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6296569225215126</v>
+        <v>0.6316509579983522</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6917986405505809</v>
+        <v>0.6928701086589322</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>809</v>
@@ -6699,19 +6699,19 @@
         <v>547749</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>524685</v>
+        <v>522130</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>573916</v>
+        <v>572342</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6482315446376676</v>
+        <v>0.6482315446376679</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6209371400335829</v>
+        <v>0.6179130900351573</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6791991909814621</v>
+        <v>0.6773364989952116</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1562</v>
@@ -6720,19 +6720,19 @@
         <v>1290226</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1244210</v>
+        <v>1251237</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1331978</v>
+        <v>1333582</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6562847715333477</v>
+        <v>0.6562847715333475</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.632878377291068</v>
+        <v>0.6364527300488433</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6775223516487893</v>
+        <v>0.6783378625251616</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>378488</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>345483</v>
+        <v>344282</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>415142</v>
+        <v>412907</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3376446712458342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.308201359449419</v>
+        <v>0.3071298913410678</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3703430774784873</v>
+        <v>0.3683490420016478</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>396</v>
@@ -6770,19 +6770,19 @@
         <v>297240</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>271073</v>
+        <v>272647</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>320304</v>
+        <v>322859</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3517684553623322</v>
+        <v>0.3517684553623323</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3208008090185372</v>
+        <v>0.3226635010047884</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3790628599664166</v>
+        <v>0.3820869099648432</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>748</v>
@@ -6791,19 +6791,19 @@
         <v>675729</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>633977</v>
+        <v>632373</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>721745</v>
+        <v>714718</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3437152284666524</v>
+        <v>0.3437152284666523</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3224776483512107</v>
+        <v>0.3216621374748383</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3671216227089321</v>
+        <v>0.3635472699511568</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>388032</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>364920</v>
+        <v>362856</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>413815</v>
+        <v>412696</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6981487931645809</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6565641959214138</v>
+        <v>0.6528514667608017</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7445362079622291</v>
+        <v>0.7425238948195673</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>924</v>
@@ -6916,19 +6916,19 @@
         <v>587286</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>563517</v>
+        <v>565228</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>606430</v>
+        <v>609784</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7226112777496122</v>
+        <v>0.7226112777496123</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6933651591575906</v>
+        <v>0.6954704663019432</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7461668178718253</v>
+        <v>0.7502931554602418</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1314</v>
@@ -6937,19 +6937,19 @@
         <v>975318</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>943596</v>
+        <v>941367</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1006809</v>
+        <v>1006460</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7126763062672372</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6894967275136691</v>
+        <v>0.6878674636681517</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7356866838400876</v>
+        <v>0.7354322724126664</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>167770</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>141987</v>
+        <v>143106</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>190882</v>
+        <v>192946</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3018512068354192</v>
+        <v>0.3018512068354191</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2554637920377708</v>
+        <v>0.2574761051804329</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3434358040785862</v>
+        <v>0.3471485332391983</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>335</v>
@@ -6987,19 +6987,19 @@
         <v>225441</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>206297</v>
+        <v>202943</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>249210</v>
+        <v>247499</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2773887222503878</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2538331821281748</v>
+        <v>0.2497068445397578</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3066348408424093</v>
+        <v>0.3045295336980567</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>480</v>
@@ -7008,19 +7008,19 @@
         <v>393211</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>361720</v>
+        <v>362069</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>424933</v>
+        <v>427162</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2873236937327627</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2643133161599125</v>
+        <v>0.2645677275873337</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3105032724863311</v>
+        <v>0.3121325363318486</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>112948</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>88895</v>
+        <v>87517</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>137815</v>
+        <v>137438</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.4816096398977029</v>
+        <v>0.4816096398977031</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3790483497071777</v>
+        <v>0.3731698276874506</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5876417681984287</v>
+        <v>0.5860356550339098</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>776</v>
@@ -7133,19 +7133,19 @@
         <v>541532</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>511597</v>
+        <v>514691</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>568813</v>
+        <v>568890</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.6560151624727196</v>
+        <v>0.6560151624727197</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6197512902073891</v>
+        <v>0.6234995706255325</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6890630876304269</v>
+        <v>0.6891571742234425</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>834</v>
@@ -7154,19 +7154,19 @@
         <v>654479</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>616599</v>
+        <v>612527</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>690709</v>
+        <v>691796</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6174287999416485</v>
+        <v>0.6174287999416483</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5816930710552812</v>
+        <v>0.5778513693519541</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6516069558211923</v>
+        <v>0.6526331179093323</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>121574</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>96707</v>
+        <v>97084</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>145627</v>
+        <v>147005</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5183903601022972</v>
+        <v>0.5183903601022973</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4123582318015716</v>
+        <v>0.4139643449660901</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6209516502928224</v>
+        <v>0.6268301723125496</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>356</v>
@@ -7204,19 +7204,19 @@
         <v>283955</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>256674</v>
+        <v>256597</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>313890</v>
+        <v>310796</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3439848375272804</v>
+        <v>0.3439848375272803</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3109369123695729</v>
+        <v>0.3108428257765577</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.380248709792611</v>
+        <v>0.3765004293744675</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>408</v>
@@ -7225,19 +7225,19 @@
         <v>405529</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>369299</v>
+        <v>368212</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>443409</v>
+        <v>447481</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.3825712000583518</v>
+        <v>0.3825712000583517</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3483930441788077</v>
+        <v>0.3473668820906679</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4183069289447187</v>
+        <v>0.4221486306480459</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>2181456</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2120761</v>
+        <v>2109916</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2254765</v>
+        <v>2243159</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6425899021322748</v>
+        <v>0.642589902132275</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6247111207372237</v>
+        <v>0.6215165343632428</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6641843904909542</v>
+        <v>0.6607657617099343</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3464</v>
@@ -7350,19 +7350,19 @@
         <v>2331613</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2283531</v>
+        <v>2273735</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2388933</v>
+        <v>2378700</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6534749114094691</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6399991548994728</v>
+        <v>0.6372534979433608</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6695397726542963</v>
+        <v>0.666671879761048</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5630</v>
@@ -7371,19 +7371,19 @@
         <v>4513069</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4427585</v>
+        <v>4423672</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4586928</v>
+        <v>4595932</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6481678167265277</v>
+        <v>0.6481678167265276</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6358904685521817</v>
+        <v>0.6353286150381713</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6587753819911493</v>
+        <v>0.6600685706192725</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>1213331</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1140022</v>
+        <v>1151628</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1274026</v>
+        <v>1284871</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3574100978677252</v>
+        <v>0.357410097867725</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3358156095090457</v>
+        <v>0.3392342382900659</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3752888792627763</v>
+        <v>0.3784834656367572</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1676</v>
@@ -7421,19 +7421,19 @@
         <v>1236409</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1179089</v>
+        <v>1189322</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1284491</v>
+        <v>1294287</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3465250885905309</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3304602273457037</v>
+        <v>0.333328120238952</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3600008451005274</v>
+        <v>0.3627465020566391</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2759</v>
@@ -7442,19 +7442,19 @@
         <v>2449741</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2375882</v>
+        <v>2366878</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2535225</v>
+        <v>2539138</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.3518321832734725</v>
+        <v>0.3518321832734726</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3412246180088508</v>
+        <v>0.3399314293807278</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3641095314478184</v>
+        <v>0.364671384961829</v>
       </c>
     </row>
     <row r="24">
